--- a/isitword test/wordorderth_2.xlsx
+++ b/isitword test/wordorderth_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>word_length</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>worddir</t>
         </is>
       </c>
@@ -463,11 +468,14 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>93</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>word/wordth0932.png</t>
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>word/wordth0032.png</t>
         </is>
       </c>
     </row>
@@ -479,11 +487,14 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>word/wordth0613.png</t>
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>word/wordth0523.png</t>
         </is>
       </c>
     </row>
@@ -492,14 +503,17 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>word/wordth0632.png</t>
+        <v>44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>word/wordth0443.png</t>
         </is>
       </c>
     </row>
@@ -508,14 +522,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>66</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>word/wordth0661.png</t>
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>word/wordthc203.png</t>
         </is>
       </c>
     </row>
@@ -526,12 +545,17 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>27</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>word/wordth0271.png</t>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>71a</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>word/wordth71a1.png</t>
         </is>
       </c>
     </row>
@@ -540,16 +564,17 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>word/wordthc103.png</t>
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>word/wordth0262.png</t>
         </is>
       </c>
     </row>
@@ -558,14 +583,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>44</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>word/wordth0442.png</t>
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>75a</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>word/wordth75a1.png</t>
         </is>
       </c>
     </row>
@@ -577,11 +607,14 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>word/wordth0063.png</t>
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>word/wordth0103.png</t>
         </is>
       </c>
     </row>
@@ -590,14 +623,17 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>63</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>word/wordth0633.png</t>
+        <v>11</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>word/wordth0112.png</t>
         </is>
       </c>
     </row>
@@ -609,11 +645,14 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>word/wordth0283.png</t>
+        <v>68</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>word/wordth0683.png</t>
         </is>
       </c>
     </row>
@@ -625,11 +664,14 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>44</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>word/wordth0443.png</t>
+        <v>50</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>word/wordth0503.png</t>
         </is>
       </c>
     </row>
@@ -638,14 +680,17 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>89</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>word/wordth0892.png</t>
+        <v>30</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>word/wordth0303.png</t>
         </is>
       </c>
     </row>
@@ -654,14 +699,17 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>word/wordth0503.png</t>
+        <v>61</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>word/wordth0611.png</t>
         </is>
       </c>
     </row>
@@ -670,14 +718,17 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>word/wordth0281.png</t>
+        <v>51</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>word/wordth0512.png</t>
         </is>
       </c>
     </row>
@@ -688,12 +739,17 @@
       <c r="B16" t="n">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
-        <v>89</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>word/wordth0893.png</t>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>word/wordthc303.png</t>
         </is>
       </c>
     </row>
@@ -702,14 +758,17 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>word/wordth0032.png</t>
+        <v>95</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>word/wordth0951.png</t>
         </is>
       </c>
     </row>
@@ -718,14 +777,17 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>word/wordth0222.png</t>
+        <v>7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>word/wordth0073.png</t>
         </is>
       </c>
     </row>
@@ -734,14 +796,17 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>82</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>word/wordth0822.png</t>
+        <v>22</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>word/wordth0223.png</t>
         </is>
       </c>
     </row>
@@ -750,16 +815,17 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>75a</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>word/wordth75a1.png</t>
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>44</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>word/wordth0442.png</t>
         </is>
       </c>
     </row>
@@ -771,11 +837,14 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>68</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>word/wordth0681.png</t>
+        <v>26</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>word/wordth0261.png</t>
         </is>
       </c>
     </row>
@@ -786,14 +855,15 @@
       <c r="B22" t="n">
         <v>2</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>word/wordthc102.png</t>
+      <c r="C22" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>word/wordth0102.png</t>
         </is>
       </c>
     </row>
@@ -802,16 +872,17 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>word/wordthc301.png</t>
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>95</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>word/wordth0952.png</t>
         </is>
       </c>
     </row>
@@ -822,12 +893,17 @@
       <c r="B24" t="n">
         <v>3</v>
       </c>
-      <c r="C24" t="n">
-        <v>8</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>word/wordth0083.png</t>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23a</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>word/wordth23a3.png</t>
         </is>
       </c>
     </row>
@@ -836,14 +912,19 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" t="n">
-        <v>10</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>word/wordth0103.png</t>
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>word/wordthc102.png</t>
         </is>
       </c>
     </row>
@@ -855,11 +936,14 @@
         <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>word/wordth0073.png</t>
+        <v>42</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>word/wordth0423.png</t>
         </is>
       </c>
     </row>
@@ -868,14 +952,17 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>word/wordth0101.png</t>
+        <v>50</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>word/wordth0502.png</t>
         </is>
       </c>
     </row>
@@ -887,11 +974,14 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>word/wordth0031.png</t>
+        <v>27</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>word/wordth0271.png</t>
         </is>
       </c>
     </row>
@@ -900,14 +990,19 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" t="n">
-        <v>42</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>word/wordth0422.png</t>
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>23a</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>word/wordth23a1.png</t>
         </is>
       </c>
     </row>
@@ -916,14 +1011,17 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>24</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>word/wordth0243.png</t>
+        <v>66</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>word/wordth0661.png</t>
         </is>
       </c>
     </row>
@@ -932,14 +1030,17 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>word/wordth0303.png</t>
+        <v>7</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>word/wordth0071.png</t>
         </is>
       </c>
     </row>
@@ -948,16 +1049,17 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>word/wordthc303.png</t>
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>41</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>word/wordth0411.png</t>
         </is>
       </c>
     </row>
@@ -966,16 +1068,19 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>d1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>word/wordthd101.png</t>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>word/wordthc402.png</t>
         </is>
       </c>
     </row>
@@ -987,11 +1092,14 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>24</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>word/wordth0241.png</t>
+        <v>31</v>
+      </c>
+      <c r="D34" t="n">
+        <v>7</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>word/wordth0311.png</t>
         </is>
       </c>
     </row>
@@ -1000,16 +1108,17 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>word/wordthc302.png</t>
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>word/wordth0061.png</t>
         </is>
       </c>
     </row>
@@ -1018,14 +1127,17 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>word/wordth0301.png</t>
+        <v>51</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>word/wordth0513.png</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1148,17 @@
       <c r="B37" t="n">
         <v>1</v>
       </c>
-      <c r="C37" t="n">
-        <v>88</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>word/wordth0881.png</t>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>d1</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>word/wordthd101.png</t>
         </is>
       </c>
     </row>
@@ -1050,14 +1167,17 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>word/wordth0072.png</t>
+        <v>70</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>word/wordth0703.png</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1190,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>71a</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>word/wordth71a1.png</t>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>word/wordthc401.png</t>
         </is>
       </c>
     </row>
@@ -1084,14 +1207,17 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>93</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>word/wordth0933.png</t>
+        <v>63</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>word/wordth0632.png</t>
         </is>
       </c>
     </row>
@@ -1100,14 +1226,17 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>word/wordth0033.png</t>
+        <v>42</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>word/wordth0422.png</t>
         </is>
       </c>
     </row>
@@ -1116,14 +1245,17 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>31</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>word/wordth0311.png</t>
+        <v>87</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>word/wordth0873.png</t>
         </is>
       </c>
     </row>
@@ -1132,14 +1264,17 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>8</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>word/wordth0082.png</t>
+        <v>82</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>word/wordth0823.png</t>
         </is>
       </c>
     </row>
@@ -1148,14 +1283,17 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>61</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>word/wordth0612.png</t>
+        <v>28</v>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>word/wordth0283.png</t>
         </is>
       </c>
     </row>
@@ -1164,14 +1302,19 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>82</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>word/wordth0821.png</t>
+        <v>3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>75a</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>word/wordth75a3.png</t>
         </is>
       </c>
     </row>
@@ -1180,14 +1323,17 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>50</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>word/wordth0501.png</t>
+        <v>66</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>word/wordth0663.png</t>
         </is>
       </c>
     </row>
@@ -1196,14 +1342,17 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>24</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>word/wordth0242.png</t>
+        <v>27</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>word/wordth0273.png</t>
         </is>
       </c>
     </row>
@@ -1212,14 +1361,19 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
-      </c>
-      <c r="C48" t="n">
-        <v>27</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>word/wordth0272.png</t>
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>word/wordthc201.png</t>
         </is>
       </c>
     </row>
@@ -1230,12 +1384,17 @@
       <c r="B49" t="n">
         <v>3</v>
       </c>
-      <c r="C49" t="n">
-        <v>27</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>word/wordth0273.png</t>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>word/wordthc103.png</t>
         </is>
       </c>
     </row>
@@ -1244,14 +1403,17 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>52</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>word/wordth0521.png</t>
+        <v>89</v>
+      </c>
+      <c r="D50" t="n">
+        <v>7</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>word/wordth0893.png</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1422,19 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" t="n">
-        <v>66</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>word/wordth0662.png</t>
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>word/wordthc301.png</t>
         </is>
       </c>
     </row>
@@ -1279,11 +1446,14 @@
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>31</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>word/wordth0313.png</t>
+        <v>3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>word/wordth0033.png</t>
         </is>
       </c>
     </row>
@@ -1292,14 +1462,17 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>68</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>word/wordth0682.png</t>
+        <v>22</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>word/wordth0221.png</t>
         </is>
       </c>
     </row>
@@ -1311,11 +1484,14 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>64</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>word/wordth0641.png</t>
+        <v>82</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>word/wordth0821.png</t>
         </is>
       </c>
     </row>
@@ -1324,14 +1500,17 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>11</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>word/wordth0112.png</t>
+        <v>95</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>word/wordth0953.png</t>
         </is>
       </c>
     </row>
@@ -1343,11 +1522,14 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>89</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>word/wordth0891.png</t>
+        <v>63</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>word/wordth0631.png</t>
         </is>
       </c>
     </row>
@@ -1356,16 +1538,17 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>23a</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>word/wordth23a3.png</t>
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>42</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>word/wordth0421.png</t>
         </is>
       </c>
     </row>
@@ -1374,16 +1557,17 @@
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>word/wordthc202.png</t>
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>87</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>word/wordth0871.png</t>
         </is>
       </c>
     </row>
@@ -1392,14 +1576,19 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
-      </c>
-      <c r="C59" t="n">
-        <v>26</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>word/wordth0263.png</t>
+        <v>2</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>75a</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>word/wordth75a2.png</t>
         </is>
       </c>
     </row>
@@ -1408,16 +1597,17 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>word/wordthc401.png</t>
+        <v>2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>24</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>word/wordth0242.png</t>
         </is>
       </c>
     </row>
@@ -1426,14 +1616,17 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>word/wordth0102.png</t>
+        <v>93</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>word/wordth0933.png</t>
         </is>
       </c>
     </row>
@@ -1445,11 +1638,14 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>word/wordth0302.png</t>
+        <v>64</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>word/wordth0642.png</t>
         </is>
       </c>
     </row>
@@ -1461,11 +1657,14 @@
         <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>52</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>word/wordth0523.png</t>
+        <v>24</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>word/wordth0243.png</t>
         </is>
       </c>
     </row>
@@ -1474,14 +1673,17 @@
         <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>51</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>word/wordth0513.png</t>
+        <v>52</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>word/wordth0521.png</t>
         </is>
       </c>
     </row>
@@ -1490,16 +1692,17 @@
         <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>word/wordthc101.png</t>
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>word/wordth0082.png</t>
         </is>
       </c>
     </row>
@@ -1511,11 +1714,14 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>61</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>word/wordth0611.png</t>
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>word/wordth0031.png</t>
         </is>
       </c>
     </row>
@@ -1524,14 +1730,17 @@
         <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
+        <v>61</v>
+      </c>
+      <c r="D67" t="n">
         <v>7</v>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>word/wordth0071.png</t>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>word/wordth0612.png</t>
         </is>
       </c>
     </row>
@@ -1542,14 +1751,15 @@
       <c r="B68" t="n">
         <v>2</v>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>d1</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>word/wordthd102.png</t>
+      <c r="C68" t="n">
+        <v>27</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>word/wordth0272.png</t>
         </is>
       </c>
     </row>
@@ -1558,16 +1768,19 @@
         <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>word/wordthc403.png</t>
+          <t>23a</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>7</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>word/wordth23a2.png</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1789,17 @@
         <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>75a</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>word/wordth75a3.png</t>
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>word/wordth0681.png</t>
         </is>
       </c>
     </row>
@@ -1594,14 +1808,17 @@
         <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>95</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>word/wordth0951.png</t>
+        <v>6</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>word/wordth0062.png</t>
         </is>
       </c>
     </row>
@@ -1613,11 +1830,14 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>70</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>word/wordth0702.png</t>
+        <v>88</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>word/wordth0882.png</t>
         </is>
       </c>
     </row>
@@ -1629,11 +1849,14 @@
         <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>42</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>word/wordth0423.png</t>
+        <v>8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>word/wordth0083.png</t>
         </is>
       </c>
     </row>
@@ -1645,11 +1868,14 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>31</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>word/wordth0312.png</t>
+        <v>66</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>word/wordth0662.png</t>
         </is>
       </c>
     </row>
@@ -1658,14 +1884,17 @@
         <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>87</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>word/wordth0873.png</t>
+        <v>93</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>word/wordth0931.png</t>
         </is>
       </c>
     </row>
@@ -1674,16 +1903,17 @@
         <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>71a</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>word/wordth71a2.png</t>
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>44</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>word/wordth0441.png</t>
         </is>
       </c>
     </row>
@@ -1692,14 +1922,17 @@
         <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>64</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>word/wordth0643.png</t>
+        <v>10</v>
+      </c>
+      <c r="D77" t="n">
+        <v>7</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>word/wordth0101.png</t>
         </is>
       </c>
     </row>
@@ -1711,11 +1944,14 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>50</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>word/wordth0502.png</t>
+        <v>30</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>word/wordth0302.png</t>
         </is>
       </c>
     </row>
@@ -1724,14 +1960,17 @@
         <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>51</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>word/wordth0512.png</t>
+        <v>64</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>word/wordth0643.png</t>
         </is>
       </c>
     </row>
@@ -1740,16 +1979,17 @@
         <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>word/wordthc402.png</t>
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>28</v>
+      </c>
+      <c r="D80" t="n">
+        <v>7</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>word/wordth0281.png</t>
         </is>
       </c>
     </row>
@@ -1758,14 +1998,17 @@
         <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>11</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>word/wordth0113.png</t>
+        <v>93</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>word/wordth0932.png</t>
         </is>
       </c>
     </row>
@@ -1774,14 +2017,17 @@
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>93</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>word/wordth0931.png</t>
+        <v>48</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>word/wordth0482.png</t>
         </is>
       </c>
     </row>
@@ -1790,16 +2036,17 @@
         <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>23a</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>word/wordth23a2.png</t>
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>24</v>
+      </c>
+      <c r="D83" t="n">
+        <v>7</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>word/wordth0241.png</t>
         </is>
       </c>
     </row>
@@ -1808,14 +2055,17 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>48</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>word/wordth0481.png</t>
+        <v>31</v>
+      </c>
+      <c r="D84" t="n">
+        <v>7</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>word/wordth0312.png</t>
         </is>
       </c>
     </row>
@@ -1824,14 +2074,17 @@
         <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>88</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>word/wordth0883.png</t>
+        <v>48</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>word/wordth0481.png</t>
         </is>
       </c>
     </row>
@@ -1843,11 +2096,14 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
+        <v>11</v>
+      </c>
+      <c r="D86" t="n">
         <v>6</v>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>word/wordth0061.png</t>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>word/wordth0111.png</t>
         </is>
       </c>
     </row>
@@ -1856,14 +2112,19 @@
         <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
-      </c>
-      <c r="C87" t="n">
-        <v>22</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>word/wordth0223.png</t>
+        <v>2</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>c2</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>3</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>word/wordthc202.png</t>
         </is>
       </c>
     </row>
@@ -1872,14 +2133,17 @@
         <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>68</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>word/wordth0683.png</t>
+        <v>22</v>
+      </c>
+      <c r="D88" t="n">
+        <v>7</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>word/wordth0222.png</t>
         </is>
       </c>
     </row>
@@ -1888,14 +2152,17 @@
         <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>63</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>word/wordth0631.png</t>
+        <v>61</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>word/wordth0613.png</t>
         </is>
       </c>
     </row>
@@ -1904,16 +2171,19 @@
         <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>71a</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>word/wordth71a3.png</t>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>3</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>word/wordthc302.png</t>
         </is>
       </c>
     </row>
@@ -1922,14 +2192,19 @@
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
-      </c>
-      <c r="C91" t="n">
-        <v>70</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>word/wordth0703.png</t>
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>c1</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>3</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>word/wordthc101.png</t>
         </is>
       </c>
     </row>
@@ -1938,14 +2213,17 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>64</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>word/wordth0642.png</t>
+        <v>41</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>word/wordth0413.png</t>
         </is>
       </c>
     </row>
@@ -1954,16 +2232,19 @@
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>23a</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>word/wordth23a1.png</t>
+          <t>71a</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>6</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>word/wordth71a3.png</t>
         </is>
       </c>
     </row>
@@ -1975,11 +2256,14 @@
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>11</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>word/wordth0111.png</t>
+        <v>64</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>word/wordth0641.png</t>
         </is>
       </c>
     </row>
@@ -1991,11 +2275,14 @@
         <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>48</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>word/wordth0483.png</t>
+        <v>63</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>word/wordth0633.png</t>
         </is>
       </c>
     </row>
@@ -2004,14 +2291,17 @@
         <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>82</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>word/wordth0823.png</t>
+        <v>87</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>word/wordth0872.png</t>
         </is>
       </c>
     </row>
@@ -2023,11 +2313,14 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>8</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>word/wordth0081.png</t>
+        <v>51</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>word/wordth0511.png</t>
         </is>
       </c>
     </row>
@@ -2036,16 +2329,17 @@
         <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>word/wordthc201.png</t>
+        <v>3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>48</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>word/wordth0483.png</t>
         </is>
       </c>
     </row>
@@ -2057,11 +2351,14 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>48</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>word/wordth0482.png</t>
+        <v>52</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>word/wordth0522.png</t>
         </is>
       </c>
     </row>
@@ -2070,14 +2367,17 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>52</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>word/wordth0522.png</t>
+        <v>8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>word/wordth0081.png</t>
         </is>
       </c>
     </row>
@@ -2086,14 +2386,19 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" t="n">
-        <v>22</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>word/wordth0221.png</t>
+        <v>3</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>d1</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>4</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>word/wordthd103.png</t>
         </is>
       </c>
     </row>
@@ -2102,14 +2407,17 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>41</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>word/wordth0413.png</t>
+        <v>89</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>word/wordth0891.png</t>
         </is>
       </c>
     </row>
@@ -2118,14 +2426,17 @@
         <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>95</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>word/wordth0953.png</t>
+        <v>70</v>
+      </c>
+      <c r="D103" t="n">
+        <v>6</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>word/wordth0701.png</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2445,17 @@
         <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>66</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>word/wordth0663.png</t>
+        <v>70</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>word/wordth0702.png</t>
         </is>
       </c>
     </row>
@@ -2153,11 +2467,14 @@
         <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>87</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>word/wordth0872.png</t>
+        <v>68</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>word/wordth0682.png</t>
         </is>
       </c>
     </row>
@@ -2166,14 +2483,17 @@
         <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>51</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>word/wordth0511.png</t>
+        <v>88</v>
+      </c>
+      <c r="D106" t="n">
+        <v>6</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>word/wordth0883.png</t>
         </is>
       </c>
     </row>
@@ -2184,14 +2504,15 @@
       <c r="B107" t="n">
         <v>3</v>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>d1</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>word/wordthd103.png</t>
+      <c r="C107" t="n">
+        <v>6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>word/wordth0063.png</t>
         </is>
       </c>
     </row>
@@ -2200,14 +2521,17 @@
         <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>26</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>word/wordth0261.png</t>
+        <v>89</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>word/wordth0892.png</t>
         </is>
       </c>
     </row>
@@ -2219,11 +2543,14 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>70</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>word/wordth0701.png</t>
+        <v>50</v>
+      </c>
+      <c r="D109" t="n">
+        <v>6</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>word/wordth0501.png</t>
         </is>
       </c>
     </row>
@@ -2235,11 +2562,14 @@
         <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>26</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>word/wordth0262.png</t>
+        <v>82</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>word/wordth0822.png</t>
         </is>
       </c>
     </row>
@@ -2248,16 +2578,17 @@
         <v>1</v>
       </c>
       <c r="B111" t="n">
-        <v>3</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>word/wordthc203.png</t>
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>30</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>word/wordth0301.png</t>
         </is>
       </c>
     </row>
@@ -2268,12 +2599,17 @@
       <c r="B112" t="n">
         <v>2</v>
       </c>
-      <c r="C112" t="n">
-        <v>6</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>word/wordth0062.png</t>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>d1</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>4</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>word/wordthd102.png</t>
         </is>
       </c>
     </row>
@@ -2282,14 +2618,19 @@
         <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
-      </c>
-      <c r="C113" t="n">
-        <v>41</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>word/wordth0411.png</t>
+        <v>3</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>3</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>word/wordthc403.png</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2644,10 @@
       <c r="C114" t="n">
         <v>28</v>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D114" t="n">
+        <v>7</v>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>word/wordth0282.png</t>
         </is>
@@ -2314,16 +2658,17 @@
         <v>1</v>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>75a</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>word/wordth75a2.png</t>
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>88</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>word/wordth0881.png</t>
         </is>
       </c>
     </row>
@@ -2332,14 +2677,17 @@
         <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>87</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>word/wordth0871.png</t>
+        <v>41</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>word/wordth0412.png</t>
         </is>
       </c>
     </row>
@@ -2348,14 +2696,19 @@
         <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>44</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>word/wordth0441.png</t>
+        <v>2</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>71a</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>6</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>word/wordth71a2.png</t>
         </is>
       </c>
     </row>
@@ -2367,11 +2720,14 @@
         <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>41</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>word/wordth0412.png</t>
+        <v>7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>word/wordth0072.png</t>
         </is>
       </c>
     </row>
@@ -2380,14 +2736,17 @@
         <v>1</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>95</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>word/wordth0952.png</t>
+        <v>26</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>word/wordth0263.png</t>
         </is>
       </c>
     </row>
@@ -2396,14 +2755,17 @@
         <v>1</v>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>88</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>word/wordth0882.png</t>
+        <v>11</v>
+      </c>
+      <c r="D120" t="n">
+        <v>6</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>word/wordth0113.png</t>
         </is>
       </c>
     </row>
@@ -2412,14 +2774,17 @@
         <v>1</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>42</v>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>word/wordth0421.png</t>
+        <v>31</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>word/wordth0313.png</t>
         </is>
       </c>
     </row>
